--- a/2021/期中试题与成绩/期中成绩/contest2_score(含本班).xlsx
+++ b/2021/期中试题与成绩/期中成绩/contest2_score(含本班).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github_repository\C-Program\2021\期中试题与成绩\期中成绩\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABCFBA5-13B8-4EE5-93A0-6986771CCE53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F527E2F2-1F30-4B9E-8600-7B6404A14F36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5151" uniqueCount="1804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5145" uniqueCount="1801">
   <si>
     <t>User Id</t>
   </si>
@@ -3631,12 +3631,6 @@
     <t>0/16</t>
   </si>
   <si>
-    <t>18569326550</t>
-  </si>
-  <si>
-    <t>罗思华</t>
-  </si>
-  <si>
     <t>21009100680</t>
   </si>
   <si>
@@ -5444,10 +5438,6 @@
   </si>
   <si>
     <t>邢黎明</t>
-  </si>
-  <si>
-    <t>助教</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5787,8 +5777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D96E7D-2A71-49FE-B3DF-B588A2DF72B7}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5830,10 +5820,10 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="B2" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="C2" t="s">
         <v>67</v>
@@ -5862,10 +5852,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="B3" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
       <c r="C3" t="s">
         <v>38</v>
@@ -5958,10 +5948,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1411</v>
+        <v>1409</v>
       </c>
       <c r="B6" t="s">
-        <v>1412</v>
+        <v>1410</v>
       </c>
       <c r="C6" t="s">
         <v>20</v>
@@ -6022,10 +6012,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="B8" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -6086,10 +6076,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1515</v>
+        <v>1513</v>
       </c>
       <c r="B10" t="s">
-        <v>1516</v>
+        <v>1514</v>
       </c>
       <c r="C10" t="s">
         <v>38</v>
@@ -6214,10 +6204,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B14" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -6246,10 +6236,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="B15" t="s">
-        <v>1400</v>
+        <v>1398</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
@@ -6278,10 +6268,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="B16" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -6310,10 +6300,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B17" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -6406,10 +6396,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B20" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -6438,10 +6428,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="B21" t="s">
-        <v>1766</v>
+        <v>1764</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -6534,10 +6524,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="B24" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="C24" t="s">
         <v>177</v>
@@ -6566,10 +6556,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B25" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -6598,10 +6588,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B26" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -6758,10 +6748,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="B31" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -6790,10 +6780,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B32" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="C32" t="s">
         <v>27</v>
@@ -6822,10 +6812,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="B33" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="C33" t="s">
         <v>17</v>
@@ -6854,10 +6844,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1761</v>
+        <v>1759</v>
       </c>
       <c r="B34" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -7462,10 +7452,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B53" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -7494,10 +7484,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B54" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C54" t="s">
         <v>17</v>
@@ -7526,10 +7516,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B55" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -7558,10 +7548,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B56" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
@@ -7590,10 +7580,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B57" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C57" t="s">
         <v>15</v>
@@ -7622,10 +7612,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B58" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C58" t="s">
         <v>114</v>
@@ -7654,10 +7644,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B59" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -7686,10 +7676,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B60" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -7718,10 +7708,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B61" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -7750,10 +7740,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B62" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
@@ -7782,10 +7772,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B63" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -7814,10 +7804,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B64" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C64" t="s">
         <v>15</v>
@@ -7846,10 +7836,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B65" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -7878,10 +7868,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B66" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -7910,10 +7900,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B67" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -7942,10 +7932,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B68" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C68" t="s">
         <v>24</v>
@@ -7974,10 +7964,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B69" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -8006,10 +7996,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B70" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
@@ -8038,10 +8028,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B71" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -8070,10 +8060,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="B72" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -8102,10 +8092,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B73" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
@@ -8134,10 +8124,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B74" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="C74" t="s">
         <v>35</v>
@@ -8166,10 +8156,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B75" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
@@ -8198,10 +8188,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B76" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C76" t="s">
         <v>35</v>
@@ -9023,10 +9013,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="B25" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -9055,10 +9045,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B26" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C26" t="s">
         <v>17</v>
@@ -9087,10 +9077,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1377</v>
+        <v>1375</v>
       </c>
       <c r="B27" t="s">
-        <v>1378</v>
+        <v>1376</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
@@ -9119,10 +9109,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1383</v>
+        <v>1381</v>
       </c>
       <c r="B28" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -9151,10 +9141,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1429</v>
+        <v>1427</v>
       </c>
       <c r="B29" t="s">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="C29" t="s">
         <v>16</v>
@@ -9183,10 +9173,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1493</v>
+        <v>1491</v>
       </c>
       <c r="B30" t="s">
-        <v>1494</v>
+        <v>1492</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -11316,10 +11306,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B66" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -11348,10 +11338,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B67" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -11380,10 +11370,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B68" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="C68" t="s">
         <v>15</v>
@@ -11412,10 +11402,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="B69" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -11444,10 +11434,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="B70" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
@@ -11476,10 +11466,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B71" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
@@ -11508,10 +11498,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="B72" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C72" t="s">
         <v>15</v>
@@ -11540,10 +11530,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B73" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -11572,10 +11562,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="B74" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="C74" t="s">
         <v>48</v>
@@ -11604,10 +11594,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1375</v>
+        <v>1373</v>
       </c>
       <c r="B75" t="s">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="C75" t="s">
         <v>35</v>
@@ -11636,10 +11626,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1379</v>
+        <v>1377</v>
       </c>
       <c r="B76" t="s">
-        <v>1380</v>
+        <v>1378</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -11668,10 +11658,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="B77" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -11700,10 +11690,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1443</v>
+        <v>1441</v>
       </c>
       <c r="B78" t="s">
-        <v>1444</v>
+        <v>1442</v>
       </c>
       <c r="C78" t="s">
         <v>38</v>
@@ -11732,10 +11722,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="B79" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="C79" t="s">
         <v>35</v>
@@ -11764,10 +11754,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1547</v>
+        <v>1545</v>
       </c>
       <c r="B80" t="s">
-        <v>1548</v>
+        <v>1546</v>
       </c>
       <c r="C80" t="s">
         <v>48</v>
@@ -11796,10 +11786,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B81" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="C81" t="s">
         <v>55</v>
@@ -11828,10 +11818,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B82" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
@@ -11860,10 +11850,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B83" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="C83" t="s">
         <v>17</v>
@@ -11892,10 +11882,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1725</v>
+        <v>1723</v>
       </c>
       <c r="B84" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
@@ -11924,10 +11914,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="B85" t="s">
-        <v>1742</v>
+        <v>1740</v>
       </c>
       <c r="C85" t="s">
         <v>48</v>
@@ -11956,10 +11946,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
       <c r="B86" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="C86" t="s">
         <v>48</v>
@@ -14089,10 +14079,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B66" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C66" t="s">
         <v>35</v>
@@ -14121,10 +14111,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B67" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -14153,10 +14143,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="B68" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -14185,10 +14175,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="B69" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="C69" t="s">
         <v>38</v>
@@ -14217,10 +14207,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="B70" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="C70" t="s">
         <v>105</v>
@@ -14249,10 +14239,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B71" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
@@ -14281,10 +14271,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="B72" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="C72" t="s">
         <v>55</v>
@@ -14313,10 +14303,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1371</v>
+        <v>1369</v>
       </c>
       <c r="B73" t="s">
-        <v>1372</v>
+        <v>1370</v>
       </c>
       <c r="C73" t="s">
         <v>38</v>
@@ -14345,10 +14335,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1397</v>
+        <v>1395</v>
       </c>
       <c r="B74" t="s">
-        <v>1398</v>
+        <v>1396</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -14377,10 +14367,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1407</v>
+        <v>1405</v>
       </c>
       <c r="B75" t="s">
-        <v>1408</v>
+        <v>1406</v>
       </c>
       <c r="C75" t="s">
         <v>15</v>
@@ -14409,10 +14399,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1431</v>
+        <v>1429</v>
       </c>
       <c r="B76" t="s">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -14441,10 +14431,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1447</v>
+        <v>1445</v>
       </c>
       <c r="B77" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -14473,10 +14463,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1453</v>
+        <v>1451</v>
       </c>
       <c r="B78" t="s">
-        <v>1454</v>
+        <v>1452</v>
       </c>
       <c r="C78" t="s">
         <v>48</v>
@@ -14505,10 +14495,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1461</v>
+        <v>1459</v>
       </c>
       <c r="B79" t="s">
-        <v>1462</v>
+        <v>1460</v>
       </c>
       <c r="C79" t="s">
         <v>20</v>
@@ -14537,10 +14527,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1553</v>
+        <v>1551</v>
       </c>
       <c r="B80" t="s">
-        <v>1554</v>
+        <v>1552</v>
       </c>
       <c r="C80" t="s">
         <v>15</v>
@@ -14569,10 +14559,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1557</v>
+        <v>1555</v>
       </c>
       <c r="B81" t="s">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
@@ -14601,10 +14591,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="B82" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
@@ -14633,10 +14623,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="B83" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="C83" t="s">
         <v>35</v>
@@ -14665,10 +14655,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B84" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="C84" t="s">
         <v>16</v>
@@ -14697,10 +14687,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B85" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
@@ -14729,10 +14719,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1752</v>
+        <v>1750</v>
       </c>
       <c r="B86" t="s">
-        <v>1753</v>
+        <v>1751</v>
       </c>
       <c r="C86" t="s">
         <v>105</v>
@@ -17022,10 +17012,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="B71" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -17054,10 +17044,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="B72" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="C72" t="s">
         <v>17</v>
@@ -17086,10 +17076,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="B73" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
@@ -17118,10 +17108,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="B74" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -17150,10 +17140,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="B75" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -17182,10 +17172,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="B76" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
@@ -17214,10 +17204,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B77" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
@@ -17246,10 +17236,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1425</v>
+        <v>1423</v>
       </c>
       <c r="B78" t="s">
-        <v>1426</v>
+        <v>1424</v>
       </c>
       <c r="C78" t="s">
         <v>105</v>
@@ -17278,10 +17268,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="B79" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -17310,10 +17300,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1463</v>
+        <v>1461</v>
       </c>
       <c r="B80" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -17342,10 +17332,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1465</v>
+        <v>1463</v>
       </c>
       <c r="B81" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="C81" t="s">
         <v>16</v>
@@ -17374,10 +17364,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B82" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="C82" t="s">
         <v>17</v>
@@ -17406,10 +17396,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1491</v>
+        <v>1489</v>
       </c>
       <c r="B83" t="s">
-        <v>1492</v>
+        <v>1490</v>
       </c>
       <c r="C83" t="s">
         <v>30</v>
@@ -17438,10 +17428,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="B84" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="C84" t="s">
         <v>15</v>
@@ -17470,10 +17460,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="B85" t="s">
-        <v>1518</v>
+        <v>1516</v>
       </c>
       <c r="C85" t="s">
         <v>38</v>
@@ -17502,10 +17492,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1579</v>
+        <v>1577</v>
       </c>
       <c r="B86" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="C86" t="s">
         <v>21</v>
@@ -19187,10 +19177,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B52" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -19219,10 +19209,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B53" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C53" t="s">
         <v>16</v>
@@ -19251,10 +19241,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B54" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C54" t="s">
         <v>48</v>
@@ -19283,10 +19273,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B55" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -19315,10 +19305,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B56" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -19347,10 +19337,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="B57" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="C57" t="s">
         <v>20</v>
@@ -19379,10 +19369,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="B58" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -19411,10 +19401,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="B59" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="C59" t="s">
         <v>20</v>
@@ -19443,10 +19433,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B60" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -19475,10 +19465,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B61" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C61" t="s">
         <v>17</v>
@@ -19507,10 +19497,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="B62" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -19539,10 +19529,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="B63" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -19571,10 +19561,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B64" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C64" t="s">
         <v>12</v>
@@ -19603,10 +19593,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B65" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -19635,10 +19625,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="B66" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -19667,10 +19657,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="B67" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="C67" t="s">
         <v>21</v>
@@ -19699,10 +19689,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B68" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -19731,10 +19721,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B69" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
@@ -19763,10 +19753,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B70" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C70" t="s">
         <v>177</v>
@@ -19795,10 +19785,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B71" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C71" t="s">
         <v>17</v>
@@ -19827,13 +19817,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C72" t="s">
         <v>1310</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1311</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1312</v>
       </c>
       <c r="D72">
         <v>80</v>
@@ -19859,10 +19849,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="B73" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="C73" t="s">
         <v>30</v>
@@ -19891,10 +19881,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="B74" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -19923,10 +19913,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="B75" t="s">
-        <v>1374</v>
+        <v>1372</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -19955,10 +19945,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1423</v>
+        <v>1421</v>
       </c>
       <c r="B76" t="s">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -19987,10 +19977,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1449</v>
+        <v>1447</v>
       </c>
       <c r="B77" t="s">
-        <v>1450</v>
+        <v>1448</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
@@ -20019,10 +20009,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B78" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C78" t="s">
         <v>15</v>
@@ -20051,10 +20041,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B79" t="s">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="C79" t="s">
         <v>17</v>
@@ -20083,10 +20073,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B80" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
@@ -20115,10 +20105,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1489</v>
+        <v>1487</v>
       </c>
       <c r="B81" t="s">
-        <v>1490</v>
+        <v>1488</v>
       </c>
       <c r="C81" t="s">
         <v>21</v>
@@ -20147,10 +20137,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1513</v>
+        <v>1511</v>
       </c>
       <c r="B82" t="s">
-        <v>1514</v>
+        <v>1512</v>
       </c>
       <c r="C82" t="s">
         <v>15</v>
@@ -20179,10 +20169,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="B83" t="s">
-        <v>1552</v>
+        <v>1550</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
@@ -20211,10 +20201,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1561</v>
+        <v>1559</v>
       </c>
       <c r="B84" t="s">
-        <v>1562</v>
+        <v>1560</v>
       </c>
       <c r="C84" t="s">
         <v>12</v>
@@ -20243,10 +20233,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="B85" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="C85" t="s">
         <v>17</v>
@@ -20275,10 +20265,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="B86" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
       <c r="C86" t="s">
         <v>15</v>
@@ -21512,10 +21502,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="B38" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
@@ -21544,10 +21534,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="B39" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="C39" t="s">
         <v>47</v>
@@ -21576,10 +21566,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B40" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="C40" t="s">
         <v>35</v>
@@ -21608,10 +21598,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="B41" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="C41" t="s">
         <v>38</v>
@@ -21640,10 +21630,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B42" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C42" t="s">
         <v>38</v>
@@ -21672,10 +21662,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B43" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C43" t="s">
         <v>17</v>
@@ -21704,10 +21694,10 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B44" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
@@ -21736,10 +21726,10 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B45" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C45" t="s">
         <v>17</v>
@@ -21768,10 +21758,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="B46" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="C46" t="s">
         <v>55</v>
@@ -21800,10 +21790,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>1401</v>
+        <v>1399</v>
       </c>
       <c r="B47" t="s">
-        <v>1402</v>
+        <v>1400</v>
       </c>
       <c r="C47" t="s">
         <v>47</v>
@@ -21832,10 +21822,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>1421</v>
+        <v>1419</v>
       </c>
       <c r="B48" t="s">
-        <v>1422</v>
+        <v>1420</v>
       </c>
       <c r="C48" t="s">
         <v>12</v>
@@ -21864,10 +21854,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="B49" t="s">
-        <v>1500</v>
+        <v>1498</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
@@ -21896,10 +21886,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1505</v>
+        <v>1503</v>
       </c>
       <c r="B50" t="s">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="C50" t="s">
         <v>55</v>
@@ -21928,10 +21918,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1531</v>
+        <v>1529</v>
       </c>
       <c r="B51" t="s">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="C51" t="s">
         <v>12</v>
@@ -21960,10 +21950,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1545</v>
+        <v>1543</v>
       </c>
       <c r="B52" t="s">
-        <v>1546</v>
+        <v>1544</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -21992,10 +21982,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="B53" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
@@ -22024,10 +22014,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B54" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="C54" t="s">
         <v>47</v>
@@ -22056,10 +22046,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
       <c r="B55" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="C55" t="s">
         <v>21</v>
@@ -22088,10 +22078,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B56" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="C56" t="s">
         <v>48</v>
@@ -22120,10 +22110,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B57" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="C57" t="s">
         <v>16</v>
@@ -22152,10 +22142,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
       <c r="B58" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="C58" t="s">
         <v>38</v>
@@ -23869,10 +23859,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B53" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
@@ -23901,10 +23891,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="B54" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="C54" t="s">
         <v>35</v>
@@ -23933,10 +23923,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="B55" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="C55" t="s">
         <v>17</v>
@@ -23965,10 +23955,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B56" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C56" t="s">
         <v>15</v>
@@ -23997,10 +23987,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="B57" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="C57" t="s">
         <v>48</v>
@@ -24029,10 +24019,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="B58" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
@@ -24061,10 +24051,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="B59" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -24093,10 +24083,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="B60" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="C60" t="s">
         <v>16</v>
@@ -24125,10 +24115,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B61" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -24157,10 +24147,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B62" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
@@ -24189,10 +24179,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="B63" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
@@ -24221,10 +24211,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B64" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -24253,10 +24243,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="B65" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="C65" t="s">
         <v>17</v>
@@ -24285,10 +24275,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="B66" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="C66" t="s">
         <v>27</v>
@@ -24317,10 +24307,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="B67" t="s">
-        <v>1382</v>
+        <v>1380</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -24349,10 +24339,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1389</v>
+        <v>1387</v>
       </c>
       <c r="B68" t="s">
-        <v>1390</v>
+        <v>1388</v>
       </c>
       <c r="C68" t="s">
         <v>48</v>
@@ -24381,10 +24371,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="B69" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="C69" t="s">
         <v>17</v>
@@ -24413,10 +24403,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1409</v>
+        <v>1407</v>
       </c>
       <c r="B70" t="s">
-        <v>1410</v>
+        <v>1408</v>
       </c>
       <c r="C70" t="s">
         <v>15</v>
@@ -24445,10 +24435,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="B71" t="s">
-        <v>1414</v>
+        <v>1412</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
@@ -24477,10 +24467,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1427</v>
+        <v>1425</v>
       </c>
       <c r="B72" t="s">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="C72" t="s">
         <v>48</v>
@@ -24509,10 +24499,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="B73" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
@@ -24541,10 +24531,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="B74" t="s">
-        <v>1498</v>
+        <v>1496</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -24573,10 +24563,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1509</v>
+        <v>1507</v>
       </c>
       <c r="B75" t="s">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -24605,10 +24595,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1519</v>
+        <v>1517</v>
       </c>
       <c r="B76" t="s">
-        <v>1520</v>
+        <v>1518</v>
       </c>
       <c r="C76" t="s">
         <v>38</v>
@@ -24637,10 +24627,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1549</v>
+        <v>1547</v>
       </c>
       <c r="B77" t="s">
-        <v>1550</v>
+        <v>1548</v>
       </c>
       <c r="C77" t="s">
         <v>17</v>
@@ -24669,10 +24659,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1555</v>
+        <v>1553</v>
       </c>
       <c r="B78" t="s">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="C78" t="s">
         <v>17</v>
@@ -24701,10 +24691,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1559</v>
+        <v>1557</v>
       </c>
       <c r="B79" t="s">
-        <v>1560</v>
+        <v>1558</v>
       </c>
       <c r="C79" t="s">
         <v>48</v>
@@ -24733,10 +24723,10 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="B80" t="s">
-        <v>1564</v>
+        <v>1562</v>
       </c>
       <c r="C80" t="s">
         <v>17</v>
@@ -24765,10 +24755,10 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>1567</v>
+        <v>1565</v>
       </c>
       <c r="B81" t="s">
-        <v>1568</v>
+        <v>1566</v>
       </c>
       <c r="C81" t="s">
         <v>15</v>
@@ -24797,10 +24787,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>1575</v>
+        <v>1573</v>
       </c>
       <c r="B82" t="s">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
@@ -24829,10 +24819,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="B83" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="C83" t="s">
         <v>15</v>
@@ -24861,10 +24851,10 @@
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="B84" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="C84" t="s">
         <v>21</v>
@@ -24893,10 +24883,10 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B85" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="C85" t="s">
         <v>15</v>
@@ -24925,10 +24915,10 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>1754</v>
+        <v>1752</v>
       </c>
       <c r="B86" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="C86" t="s">
         <v>1083</v>
@@ -24957,7 +24947,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="B87" t="s">
         <v>310</v>
@@ -24989,10 +24979,10 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="B88" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="C88" t="s">
         <v>15</v>
@@ -25034,7 +25024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4416473-E4AE-4799-A875-84B171CED56E}">
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -25650,10 +25640,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="B20" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
@@ -25682,10 +25672,10 @@
     </row>
     <row r="21" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>17</v>
@@ -25714,10 +25704,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B22" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
@@ -25746,10 +25736,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="B23" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
@@ -25778,10 +25768,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1403</v>
+        <v>1401</v>
       </c>
       <c r="B24" t="s">
-        <v>1404</v>
+        <v>1402</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -25810,10 +25800,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1405</v>
+        <v>1403</v>
       </c>
       <c r="B25" t="s">
-        <v>1406</v>
+        <v>1404</v>
       </c>
       <c r="C25" t="s">
         <v>114</v>
@@ -25842,10 +25832,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1415</v>
+        <v>1413</v>
       </c>
       <c r="B26" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -25874,10 +25864,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1417</v>
+        <v>1415</v>
       </c>
       <c r="B27" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -25906,10 +25896,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1565</v>
+        <v>1563</v>
       </c>
       <c r="B28" t="s">
-        <v>1566</v>
+        <v>1564</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -25938,10 +25928,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1577</v>
+        <v>1575</v>
       </c>
       <c r="B29" t="s">
-        <v>1578</v>
+        <v>1576</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
@@ -25970,10 +25960,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="B30" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="C30" t="s">
         <v>17</v>
@@ -26002,10 +25992,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B31" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
@@ -26034,10 +26024,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="B32" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="C32" t="s">
         <v>17</v>
@@ -26066,10 +26056,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B33" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -26098,10 +26088,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="B34" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -26130,10 +26120,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1715</v>
+        <v>1713</v>
       </c>
       <c r="B35" t="s">
-        <v>1716</v>
+        <v>1714</v>
       </c>
       <c r="C35" t="s">
         <v>24</v>
@@ -26162,10 +26152,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1719</v>
+        <v>1717</v>
       </c>
       <c r="B36" t="s">
-        <v>1720</v>
+        <v>1718</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -26194,10 +26184,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="B37" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
@@ -26226,10 +26216,10 @@
     </row>
     <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1751</v>
+        <v>1749</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>17</v>
@@ -26258,10 +26248,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="B39" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="C39" t="s">
         <v>17</v>
@@ -26290,10 +26280,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="B40" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
@@ -26322,10 +26312,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
       <c r="B41" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="C41" t="s">
         <v>35</v>
@@ -26354,10 +26344,10 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="B42" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -26386,10 +26376,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B43" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="C43" t="s">
         <v>35</v>
@@ -26425,10 +26415,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -26467,19 +26457,19 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
       <c r="B2" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -26499,51 +26489,51 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B3" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="I3">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="J3">
-        <v>24</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>592</v>
+        <v>616</v>
       </c>
       <c r="B4" t="s">
-        <v>593</v>
+        <v>617</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -26563,92 +26553,92 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>594</v>
+        <v>911</v>
       </c>
       <c r="B5" t="s">
-        <v>595</v>
+        <v>912</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>598</v>
+        <v>1167</v>
       </c>
       <c r="B6" t="s">
-        <v>599</v>
+        <v>1168</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H6">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I6">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>608</v>
+        <v>1391</v>
       </c>
       <c r="B7" t="s">
-        <v>609</v>
+        <v>1392</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>21</v>
       </c>
       <c r="D7">
         <v>80</v>
       </c>
       <c r="E7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7">
         <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
       </c>
       <c r="I7">
         <v>100</v>
@@ -26659,10 +26649,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>616</v>
+        <v>1413</v>
       </c>
       <c r="B8" t="s">
-        <v>617</v>
+        <v>1414</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -26671,30 +26661,30 @@
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="J8">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>620</v>
+        <v>1401</v>
       </c>
       <c r="B9" t="s">
-        <v>621</v>
+        <v>1402</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -26703,13 +26693,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -26723,77 +26713,77 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>624</v>
+        <v>1397</v>
       </c>
       <c r="B10" t="s">
-        <v>625</v>
+        <v>1398</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H10">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I10">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="J10">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>636</v>
+        <v>1409</v>
       </c>
       <c r="B11" t="s">
-        <v>637</v>
+        <v>1410</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>640</v>
+        <v>1765</v>
       </c>
       <c r="B12" t="s">
-        <v>641</v>
+        <v>1766</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>100</v>
@@ -26805,27 +26795,27 @@
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H12">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I12">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="J12">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>642</v>
+        <v>1759</v>
       </c>
       <c r="B13" t="s">
-        <v>643</v>
+        <v>1760</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>100</v>
@@ -26837,65 +26827,65 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I13">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>652</v>
+        <v>1771</v>
       </c>
       <c r="B14" t="s">
-        <v>653</v>
+        <v>1772</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I14">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="J14">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>662</v>
+        <v>1777</v>
       </c>
       <c r="B15" t="s">
-        <v>663</v>
+        <v>1778</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>100</v>
@@ -26915,13 +26905,13 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>777</v>
+        <v>1775</v>
       </c>
       <c r="B16" t="s">
-        <v>778</v>
+        <v>1776</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>100</v>
@@ -26933,33 +26923,33 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I16">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="J16">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>781</v>
+        <v>1783</v>
       </c>
       <c r="B17" t="s">
-        <v>782</v>
+        <v>1784</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -26979,74 +26969,74 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>789</v>
+        <v>1791</v>
       </c>
       <c r="B18" t="s">
-        <v>790</v>
+        <v>1792</v>
       </c>
       <c r="C18" t="s">
-        <v>791</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="F18">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="H18">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>160</v>
       </c>
       <c r="J18">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>796</v>
+        <v>1795</v>
       </c>
       <c r="B19" t="s">
-        <v>797</v>
+        <v>1796</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19">
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I19">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="J19">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>842</v>
+        <v>1793</v>
       </c>
       <c r="B20" t="s">
-        <v>843</v>
+        <v>1794</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -27055,30 +27045,30 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="H20">
         <v>100</v>
       </c>
       <c r="I20">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>852</v>
+        <v>1641</v>
       </c>
       <c r="B21" t="s">
-        <v>853</v>
+        <v>1642</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -27087,45 +27077,45 @@
         <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F21">
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J21">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>856</v>
+        <v>1627</v>
       </c>
       <c r="B22" t="s">
-        <v>857</v>
+        <v>1628</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="D22">
         <v>100</v>
       </c>
       <c r="E22" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="F22">
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H22">
         <v>100</v>
@@ -27139,269 +27129,269 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>858</v>
+        <v>1635</v>
       </c>
       <c r="B23" t="s">
-        <v>859</v>
+        <v>1636</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23">
         <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I23">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="J23">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>874</v>
+        <v>1631</v>
       </c>
       <c r="B24" t="s">
-        <v>875</v>
+        <v>1632</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F24">
         <v>100</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="H24">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I24">
-        <v>160</v>
+        <v>280</v>
       </c>
       <c r="J24">
-        <v>58</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>876</v>
+        <v>1669</v>
       </c>
       <c r="B25" t="s">
-        <v>877</v>
+        <v>1670</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
         <v>38</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25" t="s">
-        <v>21</v>
-      </c>
       <c r="H25">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I25">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J25">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>890</v>
+        <v>1657</v>
       </c>
       <c r="B26" t="s">
-        <v>891</v>
+        <v>1658</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>892</v>
+        <v>1651</v>
       </c>
       <c r="B27" t="s">
-        <v>893</v>
+        <v>1652</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>177</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F27">
         <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="H27">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I27">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="J27">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>894</v>
+        <v>1699</v>
       </c>
       <c r="B28" t="s">
-        <v>895</v>
+        <v>1700</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D28">
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="F28">
         <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H28">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I28">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="J28">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>896</v>
+        <v>1683</v>
       </c>
       <c r="B29" t="s">
-        <v>897</v>
+        <v>1684</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="D29">
         <v>100</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F29">
         <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="H29">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I29">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="J29">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>900</v>
+        <v>1737</v>
       </c>
       <c r="B30" t="s">
-        <v>901</v>
+        <v>1738</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F30">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G30" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H30">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I30">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="J30">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>904</v>
+        <v>1717</v>
       </c>
       <c r="B31" t="s">
-        <v>905</v>
+        <v>1718</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31">
         <v>100</v>
@@ -27413,7 +27403,7 @@
         <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -27427,22 +27417,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>906</v>
+        <v>1713</v>
       </c>
       <c r="B32" t="s">
-        <v>907</v>
+        <v>1714</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <v>100</v>
       </c>
       <c r="E32" t="s">
-        <v>908</v>
+        <v>15</v>
       </c>
       <c r="F32">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G32" t="s">
         <v>17</v>
@@ -27451,164 +27441,161 @@
         <v>100</v>
       </c>
       <c r="I32">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="J32">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>911</v>
+        <v>576</v>
       </c>
       <c r="B33" t="s">
-        <v>912</v>
+        <v>577</v>
       </c>
       <c r="C33" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F33">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="G33" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H33">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I33">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="J33">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1167</v>
+        <v>608</v>
       </c>
       <c r="B34" t="s">
-        <v>1168</v>
+        <v>609</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="D34">
         <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F34">
         <v>20</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>100</v>
+      </c>
+      <c r="J34">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>598</v>
+      </c>
+      <c r="B35" t="s">
+        <v>599</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35">
+        <v>300</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>586</v>
+      </c>
+      <c r="B36" t="s">
+        <v>587</v>
+      </c>
+      <c r="C36" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36">
         <v>60</v>
       </c>
-      <c r="I34">
-        <v>160</v>
-      </c>
-      <c r="J34">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>1198</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="1">
-        <v>100</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" s="1">
-        <v>100</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="1">
-        <v>100</v>
-      </c>
-      <c r="I35" s="1">
-        <v>300</v>
-      </c>
-      <c r="J35" s="1">
-        <v>100</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1343</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36">
-        <v>100</v>
-      </c>
       <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>60</v>
+      </c>
+      <c r="J36">
         <v>24</v>
       </c>
-      <c r="F36">
-        <v>100</v>
-      </c>
-      <c r="G36" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36">
-        <v>100</v>
-      </c>
-      <c r="I36">
-        <v>300</v>
-      </c>
-      <c r="J36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1345</v>
+        <v>636</v>
       </c>
       <c r="B37" t="s">
-        <v>1346</v>
+        <v>637</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37">
         <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F37">
         <v>100</v>
       </c>
       <c r="G37" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H37">
         <v>100</v>
@@ -27620,27 +27607,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1349</v>
+        <v>642</v>
       </c>
       <c r="B38" t="s">
-        <v>1350</v>
+        <v>643</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38">
         <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F38">
         <v>100</v>
       </c>
       <c r="G38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H38">
         <v>100</v>
@@ -27652,15 +27639,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1359</v>
+        <v>640</v>
       </c>
       <c r="B39" t="s">
-        <v>1360</v>
+        <v>641</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="D39">
         <v>100</v>
@@ -27672,7 +27659,7 @@
         <v>100</v>
       </c>
       <c r="G39" t="s">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="H39">
         <v>80</v>
@@ -27684,27 +27671,27 @@
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1391</v>
+        <v>624</v>
       </c>
       <c r="B40" t="s">
-        <v>1392</v>
+        <v>625</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D40">
         <v>100</v>
       </c>
       <c r="E40" t="s">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="F40">
         <v>100</v>
       </c>
       <c r="G40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H40">
         <v>100</v>
@@ -27716,245 +27703,245 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1393</v>
+        <v>620</v>
       </c>
       <c r="B41" t="s">
-        <v>1394</v>
+        <v>621</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D41">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E41" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41">
+        <v>100</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="I41">
+        <v>300</v>
+      </c>
+      <c r="J41">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>662</v>
+      </c>
+      <c r="B42" t="s">
+        <v>663</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42">
+        <v>100</v>
+      </c>
+      <c r="E42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>100</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="I42">
+        <v>300</v>
+      </c>
+      <c r="J42">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>652</v>
+      </c>
+      <c r="B43" t="s">
+        <v>653</v>
+      </c>
+      <c r="C43" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43">
+        <v>100</v>
+      </c>
+      <c r="E43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43">
+        <v>100</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="I43">
+        <v>300</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>856</v>
+      </c>
+      <c r="B44" t="s">
+        <v>857</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="I44">
+        <v>300</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>852</v>
+      </c>
+      <c r="B45" t="s">
+        <v>853</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>100</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45">
+        <v>100</v>
+      </c>
+      <c r="I45">
+        <v>300</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>858</v>
+      </c>
+      <c r="B46" t="s">
+        <v>859</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46">
+        <v>100</v>
+      </c>
+      <c r="E46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46">
+        <v>100</v>
+      </c>
+      <c r="I46">
+        <v>300</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>842</v>
+      </c>
+      <c r="B47" t="s">
+        <v>843</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47">
+        <v>100</v>
+      </c>
+      <c r="E47" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47">
+        <v>100</v>
+      </c>
+      <c r="G47" t="s">
+        <v>48</v>
+      </c>
+      <c r="H47">
+        <v>100</v>
+      </c>
+      <c r="I47">
+        <v>300</v>
+      </c>
+      <c r="J47">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>876</v>
+      </c>
+      <c r="B48" t="s">
+        <v>877</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48">
+        <v>100</v>
+      </c>
+      <c r="E48" t="s">
         <v>38</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41" t="s">
-        <v>27</v>
-      </c>
-      <c r="H41">
-        <v>20</v>
-      </c>
-      <c r="I41">
-        <v>100</v>
-      </c>
-      <c r="J41">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C42" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42">
-        <v>100</v>
-      </c>
-      <c r="E42" t="s">
-        <v>47</v>
-      </c>
-      <c r="F42">
-        <v>40</v>
-      </c>
-      <c r="G42" t="s">
-        <v>38</v>
-      </c>
-      <c r="H42">
-        <v>40</v>
-      </c>
-      <c r="I42">
-        <v>180</v>
-      </c>
-      <c r="J42">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="D43">
-        <v>100</v>
-      </c>
-      <c r="E43" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43">
-        <v>100</v>
-      </c>
-      <c r="G43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H43">
-        <v>100</v>
-      </c>
-      <c r="I43">
-        <v>300</v>
-      </c>
-      <c r="J43">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C44" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44">
-        <v>100</v>
-      </c>
-      <c r="E44" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44">
-        <v>100</v>
-      </c>
-      <c r="G44" t="s">
-        <v>24</v>
-      </c>
-      <c r="H44">
-        <v>100</v>
-      </c>
-      <c r="I44">
-        <v>300</v>
-      </c>
-      <c r="J44">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45">
-        <v>60</v>
-      </c>
-      <c r="E45" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45">
-        <v>40</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>100</v>
-      </c>
-      <c r="J45">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46">
-        <v>100</v>
-      </c>
-      <c r="E46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46">
-        <v>100</v>
-      </c>
-      <c r="I46">
-        <v>300</v>
-      </c>
-      <c r="J46">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C47" t="s">
-        <v>17</v>
-      </c>
-      <c r="D47">
-        <v>100</v>
-      </c>
-      <c r="E47" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47">
-        <v>100</v>
-      </c>
-      <c r="G47" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47">
-        <v>100</v>
-      </c>
-      <c r="I47">
-        <v>300</v>
-      </c>
-      <c r="J47">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1515</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D48">
-        <v>80</v>
-      </c>
-      <c r="E48" t="s">
-        <v>27</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -27963,65 +27950,65 @@
         <v>21</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>100</v>
+      </c>
+      <c r="J48">
         <v>40</v>
-      </c>
-      <c r="I48">
-        <v>120</v>
-      </c>
-      <c r="J48">
-        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1565</v>
+        <v>874</v>
       </c>
       <c r="B49" t="s">
-        <v>1566</v>
+        <v>875</v>
       </c>
       <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
         <v>16</v>
       </c>
-      <c r="D49">
-        <v>100</v>
-      </c>
-      <c r="E49" t="s">
-        <v>15</v>
-      </c>
       <c r="F49">
         <v>100</v>
       </c>
       <c r="G49" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="H49">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I49">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="J49">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1577</v>
+        <v>906</v>
       </c>
       <c r="B50" t="s">
-        <v>1578</v>
+        <v>907</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D50">
         <v>100</v>
       </c>
       <c r="E50" t="s">
-        <v>15</v>
+        <v>908</v>
       </c>
       <c r="F50">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
@@ -28030,33 +28017,33 @@
         <v>100</v>
       </c>
       <c r="I50">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="J50">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1587</v>
+        <v>904</v>
       </c>
       <c r="B51" t="s">
-        <v>1588</v>
+        <v>905</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D51">
         <v>100</v>
       </c>
       <c r="E51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F51">
         <v>100</v>
       </c>
       <c r="G51" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="H51">
         <v>100</v>
@@ -28070,19 +28057,19 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1603</v>
+        <v>890</v>
       </c>
       <c r="B52" t="s">
-        <v>1604</v>
+        <v>891</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D52">
         <v>100</v>
       </c>
       <c r="E52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F52">
         <v>100</v>
@@ -28102,10 +28089,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1605</v>
+        <v>900</v>
       </c>
       <c r="B53" t="s">
-        <v>1606</v>
+        <v>901</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -28114,33 +28101,33 @@
         <v>100</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="F53">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="H53">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I53">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="J53">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1629</v>
+        <v>896</v>
       </c>
       <c r="B54" t="s">
-        <v>1630</v>
+        <v>897</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="D54">
         <v>100</v>
@@ -28152,88 +28139,88 @@
         <v>100</v>
       </c>
       <c r="G54" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H54">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I54">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="J54">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1633</v>
+        <v>894</v>
       </c>
       <c r="B55" t="s">
-        <v>1634</v>
+        <v>895</v>
       </c>
       <c r="C55" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55">
+        <v>100</v>
+      </c>
+      <c r="E55" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>100</v>
+      </c>
+      <c r="G55" t="s">
         <v>27</v>
       </c>
-      <c r="D55">
-        <v>80</v>
-      </c>
-      <c r="E55" t="s">
-        <v>24</v>
-      </c>
-      <c r="F55">
-        <v>100</v>
-      </c>
-      <c r="G55" t="s">
-        <v>15</v>
-      </c>
       <c r="H55">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I55">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="J55">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1637</v>
+        <v>892</v>
       </c>
       <c r="B56" t="s">
-        <v>1638</v>
+        <v>893</v>
       </c>
       <c r="C56" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D56">
         <v>100</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F56">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G56" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="H56">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I56">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="J56">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1643</v>
+        <v>777</v>
       </c>
       <c r="B57" t="s">
-        <v>1644</v>
+        <v>778</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -28242,158 +28229,158 @@
         <v>100</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F57">
         <v>100</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I57">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="J57">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1653</v>
+        <v>781</v>
       </c>
       <c r="B58" t="s">
-        <v>1654</v>
+        <v>782</v>
       </c>
       <c r="C58" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="E58" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="F58">
         <v>100</v>
       </c>
       <c r="G58" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H58">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I58">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="J58">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1659</v>
+        <v>789</v>
       </c>
       <c r="B59" t="s">
-        <v>1660</v>
+        <v>790</v>
       </c>
       <c r="C59" t="s">
-        <v>67</v>
+        <v>791</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E59" t="s">
         <v>27</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="G59" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1671</v>
+        <v>796</v>
       </c>
       <c r="B60" t="s">
-        <v>1672</v>
+        <v>797</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="H60">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I60">
-        <v>40</v>
+        <v>300</v>
       </c>
       <c r="J60">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1685</v>
+        <v>1513</v>
       </c>
       <c r="B61" t="s">
-        <v>1686</v>
+        <v>1514</v>
       </c>
       <c r="C61" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D61">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E61" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F61">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="H61">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I61">
-        <v>300</v>
+        <v>120</v>
       </c>
       <c r="J61">
-        <v>100</v>
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1701</v>
+        <v>1603</v>
       </c>
       <c r="B62" t="s">
-        <v>1702</v>
+        <v>1604</v>
       </c>
       <c r="C62" t="s">
         <v>17</v>
@@ -28402,39 +28389,39 @@
         <v>100</v>
       </c>
       <c r="E62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62">
+        <v>100</v>
+      </c>
+      <c r="G62" t="s">
         <v>35</v>
       </c>
-      <c r="F62">
-        <v>100</v>
-      </c>
-      <c r="G62" t="s">
-        <v>38</v>
-      </c>
       <c r="H62">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I62">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="J62">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1715</v>
+        <v>1601</v>
       </c>
       <c r="B63" t="s">
-        <v>1716</v>
+        <v>1602</v>
       </c>
       <c r="C63" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D63">
         <v>100</v>
       </c>
       <c r="E63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F63">
         <v>100</v>
@@ -28454,25 +28441,25 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1719</v>
+        <v>1575</v>
       </c>
       <c r="B64" t="s">
-        <v>1720</v>
+        <v>1576</v>
       </c>
       <c r="C64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D64">
         <v>100</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F64">
         <v>100</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H64">
         <v>100</v>
@@ -28486,25 +28473,25 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1739</v>
+        <v>1563</v>
       </c>
       <c r="B65" t="s">
-        <v>1740</v>
+        <v>1564</v>
       </c>
       <c r="C65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D65">
         <v>100</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F65">
         <v>100</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="H65">
         <v>100</v>
@@ -28518,10 +28505,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1750</v>
+        <v>1585</v>
       </c>
       <c r="B66" t="s">
-        <v>1751</v>
+        <v>1586</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -28530,13 +28517,13 @@
         <v>100</v>
       </c>
       <c r="E66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F66">
         <v>100</v>
       </c>
       <c r="G66" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="H66">
         <v>100</v>
@@ -28550,10 +28537,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1761</v>
+        <v>1347</v>
       </c>
       <c r="B67" t="s">
-        <v>1762</v>
+        <v>1348</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -28562,30 +28549,30 @@
         <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F67">
         <v>100</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H67">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I67">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="J67">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1765</v>
+        <v>1343</v>
       </c>
       <c r="B68" t="s">
-        <v>1766</v>
+        <v>1344</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -28594,39 +28581,39 @@
         <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F68">
         <v>100</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="H68">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I68">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="J68">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1767</v>
+        <v>1341</v>
       </c>
       <c r="B69" t="s">
-        <v>1768</v>
+        <v>1342</v>
       </c>
       <c r="C69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69">
         <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F69">
         <v>100</v>
@@ -28646,10 +28633,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1773</v>
+        <v>1357</v>
       </c>
       <c r="B70" t="s">
-        <v>1774</v>
+        <v>1358</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -28658,30 +28645,30 @@
         <v>100</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="F70">
         <v>100</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="H70">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="I70">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="J70">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1775</v>
+        <v>1389</v>
       </c>
       <c r="B71" t="s">
-        <v>1776</v>
+        <v>1390</v>
       </c>
       <c r="C71" t="s">
         <v>15</v>
@@ -28690,7 +28677,7 @@
         <v>100</v>
       </c>
       <c r="E71" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="F71">
         <v>100</v>
@@ -28710,25 +28697,25 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1777</v>
+        <v>1415</v>
       </c>
       <c r="B72" t="s">
-        <v>1778</v>
+        <v>1416</v>
       </c>
       <c r="C72" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72">
+        <v>100</v>
+      </c>
+      <c r="E72" t="s">
         <v>35</v>
       </c>
-      <c r="D72">
-        <v>100</v>
-      </c>
-      <c r="E72" t="s">
-        <v>48</v>
-      </c>
       <c r="F72">
         <v>100</v>
       </c>
       <c r="G72" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H72">
         <v>100</v>
@@ -28742,25 +28729,25 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1779</v>
+        <v>1403</v>
       </c>
       <c r="B73" t="s">
-        <v>1780</v>
+        <v>1404</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>114</v>
       </c>
       <c r="D73">
         <v>100</v>
       </c>
       <c r="E73" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F73">
         <v>100</v>
       </c>
       <c r="G73" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H73">
         <v>100</v>
@@ -28774,42 +28761,42 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1785</v>
+        <v>1763</v>
       </c>
       <c r="B74" t="s">
-        <v>1786</v>
+        <v>1764</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D74">
         <v>100</v>
       </c>
       <c r="E74" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="F74">
         <v>100</v>
       </c>
       <c r="G74" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="H74">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I74">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="J74">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1793</v>
+        <v>1748</v>
       </c>
       <c r="B75" t="s">
-        <v>1794</v>
+        <v>1749</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -28818,42 +28805,42 @@
         <v>100</v>
       </c>
       <c r="E75" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F75">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G75" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I75">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="J75">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1795</v>
+        <v>1773</v>
       </c>
       <c r="B76" t="s">
-        <v>1796</v>
+        <v>1774</v>
       </c>
       <c r="C76" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D76">
         <v>100</v>
       </c>
       <c r="E76" t="s">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="F76">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G76" t="s">
         <v>15</v>
@@ -28862,50 +28849,21 @@
         <v>100</v>
       </c>
       <c r="I76">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="J76">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1797</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1798</v>
-      </c>
-      <c r="C77" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77">
-        <v>100</v>
-      </c>
-      <c r="E77" t="s">
-        <v>106</v>
-      </c>
-      <c r="F77">
-        <v>60</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
-      <c r="H77">
-        <v>60</v>
-      </c>
-      <c r="I77">
-        <v>220</v>
-      </c>
-      <c r="J77">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J79">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J78">
         <v>85.9</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:K76">
+    <sortCondition ref="A2:A76"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28917,7 +28875,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="J2" sqref="J2:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28956,57 +28914,57 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>1685</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>1686</v>
       </c>
       <c r="C2" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D2">
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
       <c r="F2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2">
         <v>20</v>
       </c>
-      <c r="H2">
-        <v>80</v>
-      </c>
       <c r="I2">
-        <v>280</v>
+        <v>180</v>
       </c>
       <c r="J2">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>391</v>
+        <v>1731</v>
       </c>
       <c r="B3" t="s">
-        <v>392</v>
+        <v>1732</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -29020,42 +28978,42 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>574</v>
+        <v>650</v>
       </c>
       <c r="B4" t="s">
-        <v>575</v>
+        <v>651</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
       <c r="H4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I4">
-        <v>160</v>
+        <v>300</v>
       </c>
       <c r="J4">
-        <v>58</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>650</v>
+        <v>834</v>
       </c>
       <c r="B5" t="s">
-        <v>651</v>
+        <v>835</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
@@ -29064,7 +29022,7 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -29084,25 +29042,25 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>668</v>
+        <v>785</v>
       </c>
       <c r="B6" t="s">
-        <v>669</v>
+        <v>786</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -29116,77 +29074,77 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>705</v>
+        <v>783</v>
       </c>
       <c r="B7" t="s">
-        <v>706</v>
+        <v>784</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
-        <v>100</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
       <c r="H7">
         <v>100</v>
       </c>
       <c r="I7">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="J7">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>713</v>
+        <v>1531</v>
       </c>
       <c r="B8" t="s">
-        <v>714</v>
+        <v>1532</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="F8">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H8">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J8">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>717</v>
+        <v>1519</v>
       </c>
       <c r="B9" t="s">
-        <v>718</v>
+        <v>1520</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>184</v>
       </c>
       <c r="D9">
         <v>100</v>
@@ -29198,7 +29156,7 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -29212,57 +29170,57 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>783</v>
+        <v>1331</v>
       </c>
       <c r="B10" t="s">
-        <v>784</v>
+        <v>1332</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D10">
         <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="F10">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H10">
         <v>100</v>
       </c>
       <c r="I10">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="J10">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>785</v>
+        <v>1311</v>
       </c>
       <c r="B11" t="s">
-        <v>786</v>
+        <v>1312</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D11">
         <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -29276,19 +29234,19 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>834</v>
+        <v>1363</v>
       </c>
       <c r="B12" t="s">
-        <v>835</v>
+        <v>1364</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F12">
         <v>100</v>
@@ -29308,10 +29266,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>854</v>
+        <v>1417</v>
       </c>
       <c r="B13" t="s">
-        <v>855</v>
+        <v>1418</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -29320,30 +29278,30 @@
         <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I13">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="J13">
-        <v>82</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1313</v>
+        <v>1755</v>
       </c>
       <c r="B14" t="s">
-        <v>1314</v>
+        <v>1756</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -29352,7 +29310,7 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F14">
         <v>100</v>
@@ -29372,10 +29330,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1331</v>
+        <v>1785</v>
       </c>
       <c r="B15" t="s">
-        <v>1332</v>
+        <v>1786</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -29384,13 +29342,13 @@
         <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F15">
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H15">
         <v>100</v>
@@ -29404,10 +29362,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1333</v>
+        <v>1797</v>
       </c>
       <c r="B16" t="s">
-        <v>1334</v>
+        <v>1798</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
@@ -29416,10 +29374,10 @@
         <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>177</v>
+        <v>16</v>
       </c>
       <c r="F16">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G16" t="s">
         <v>17</v>
@@ -29428,18 +29386,18 @@
         <v>100</v>
       </c>
       <c r="I16">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="J16">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1361</v>
+        <v>668</v>
       </c>
       <c r="B17" t="s">
-        <v>1362</v>
+        <v>669</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
@@ -29448,13 +29406,13 @@
         <v>100</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="F17">
         <v>100</v>
       </c>
       <c r="G17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H17">
         <v>100</v>
@@ -29468,25 +29426,25 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1363</v>
+        <v>717</v>
       </c>
       <c r="B18" t="s">
-        <v>1364</v>
+        <v>718</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>100</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="F18">
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H18">
         <v>100</v>
@@ -29500,42 +29458,42 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1365</v>
+        <v>574</v>
       </c>
       <c r="B19" t="s">
-        <v>1366</v>
+        <v>575</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>100</v>
       </c>
       <c r="E19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I19">
-        <v>300</v>
+        <v>160</v>
       </c>
       <c r="J19">
-        <v>100</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1419</v>
+        <v>854</v>
       </c>
       <c r="B20" t="s">
-        <v>1420</v>
+        <v>855</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -29544,22 +29502,22 @@
         <v>100</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20">
         <v>100</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I20">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -29570,39 +29528,39 @@
         <v>1522</v>
       </c>
       <c r="C21" t="s">
-        <v>184</v>
+        <v>15</v>
       </c>
       <c r="D21">
         <v>100</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21">
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I21">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="J21">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
       <c r="B22" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>100</v>
@@ -29614,56 +29572,56 @@
         <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="H22">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I22">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="J22">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1527</v>
+        <v>1591</v>
       </c>
       <c r="B23" t="s">
-        <v>1528</v>
+        <v>1592</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="D23">
         <v>100</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I23">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="J23">
-        <v>100</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1533</v>
+        <v>1581</v>
       </c>
       <c r="B24" t="s">
-        <v>1534</v>
+        <v>1582</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -29672,7 +29630,7 @@
         <v>100</v>
       </c>
       <c r="E24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F24">
         <v>100</v>
@@ -29692,10 +29650,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1583</v>
+        <v>1329</v>
       </c>
       <c r="B25" t="s">
-        <v>1584</v>
+        <v>1330</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -29724,109 +29682,109 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1593</v>
+        <v>1359</v>
       </c>
       <c r="B26" t="s">
-        <v>1594</v>
+        <v>1360</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D26">
         <v>100</v>
       </c>
       <c r="E26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H26">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="I26">
-        <v>220</v>
+        <v>300</v>
       </c>
       <c r="J26">
-        <v>76</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1687</v>
+        <v>1361</v>
       </c>
       <c r="B27" t="s">
-        <v>1688</v>
+        <v>1362</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D27">
         <v>100</v>
       </c>
       <c r="E27" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="F27">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H27">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I27">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="J27">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1733</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
-        <v>1734</v>
+        <v>249</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D28">
         <v>100</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F28">
         <v>100</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I28">
-        <v>300</v>
+        <v>280</v>
       </c>
       <c r="J28">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1757</v>
+        <v>391</v>
       </c>
       <c r="B29" t="s">
-        <v>1758</v>
+        <v>392</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -29838,7 +29796,7 @@
         <v>100</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H29">
         <v>100</v>
@@ -29852,57 +29810,57 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1787</v>
+        <v>713</v>
       </c>
       <c r="B30" t="s">
-        <v>1788</v>
+        <v>714</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30">
         <v>100</v>
       </c>
       <c r="E30" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I30">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J30">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1799</v>
+        <v>705</v>
       </c>
       <c r="B31" t="s">
-        <v>1800</v>
+        <v>706</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D31">
         <v>100</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F31">
         <v>100</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H31">
         <v>100</v>
@@ -29920,6 +29878,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:J31">
+    <sortCondition ref="A2:A31"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31761,10 +31722,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="B58" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -31793,10 +31754,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B59" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="C59" t="s">
         <v>12</v>
@@ -31825,10 +31786,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B60" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="C60" t="s">
         <v>17</v>
@@ -31857,10 +31818,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1507</v>
+        <v>1505</v>
       </c>
       <c r="B61" t="s">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="C61" t="s">
         <v>20</v>
@@ -31889,10 +31850,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="B62" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="C62" t="s">
         <v>15</v>
@@ -31921,10 +31882,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1529</v>
+        <v>1527</v>
       </c>
       <c r="B63" t="s">
-        <v>1530</v>
+        <v>1528</v>
       </c>
       <c r="C63" t="s">
         <v>15</v>
@@ -31953,10 +31914,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1543</v>
+        <v>1541</v>
       </c>
       <c r="B64" t="s">
-        <v>1544</v>
+        <v>1542</v>
       </c>
       <c r="C64" t="s">
         <v>16</v>
@@ -31985,10 +31946,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="B65" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
@@ -32017,10 +31978,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="B66" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -32049,10 +32010,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B67" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="C67" t="s">
         <v>15</v>
@@ -32081,10 +32042,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B68" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="C68" t="s">
         <v>21</v>
@@ -32113,10 +32074,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B69" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="C69" t="s">
         <v>47</v>
@@ -32145,10 +32106,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1645</v>
+        <v>1643</v>
       </c>
       <c r="B70" t="s">
-        <v>1646</v>
+        <v>1644</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -32177,10 +32138,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="B71" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="C71" t="s">
         <v>35</v>
@@ -32209,10 +32170,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1651</v>
+        <v>1649</v>
       </c>
       <c r="B72" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
@@ -32241,10 +32202,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="B73" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="C73" t="s">
         <v>15</v>
@@ -32273,10 +32234,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="B74" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="C74" t="s">
         <v>17</v>
@@ -32305,10 +32266,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
       <c r="B75" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="C75" t="s">
         <v>35</v>
@@ -32337,10 +32298,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="B76" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="C76" t="s">
         <v>15</v>
@@ -32369,10 +32330,10 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="B77" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="C77" t="s">
         <v>15</v>
@@ -32401,10 +32362,10 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>1743</v>
+        <v>1741</v>
       </c>
       <c r="B78" t="s">
-        <v>1744</v>
+        <v>1742</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
@@ -32433,10 +32394,10 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
       <c r="B79" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C79" t="s">
         <v>15</v>
@@ -34022,10 +33983,10 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B49" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -34054,10 +34015,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>1511</v>
+        <v>1509</v>
       </c>
       <c r="B50" t="s">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="C50" t="s">
         <v>24</v>
@@ -34086,10 +34047,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1535</v>
+        <v>1533</v>
       </c>
       <c r="B51" t="s">
-        <v>1536</v>
+        <v>1534</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
@@ -34118,10 +34079,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>1537</v>
+        <v>1535</v>
       </c>
       <c r="B52" t="s">
-        <v>1538</v>
+        <v>1536</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
@@ -34150,10 +34111,10 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>1571</v>
+        <v>1569</v>
       </c>
       <c r="B53" t="s">
-        <v>1572</v>
+        <v>1570</v>
       </c>
       <c r="C53" t="s">
         <v>17</v>
@@ -34182,10 +34143,10 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B54" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
@@ -34214,10 +34175,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B55" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="C55" t="s">
         <v>38</v>
@@ -34246,10 +34207,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B56" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="C56" t="s">
         <v>38</v>
@@ -34278,10 +34239,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="B57" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="C57" t="s">
         <v>17</v>
@@ -34310,10 +34271,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="B58" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="C58" t="s">
         <v>47</v>
@@ -34342,10 +34303,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="B59" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="C59" t="s">
         <v>15</v>
@@ -34374,10 +34335,10 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="B60" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="C60" t="s">
         <v>15</v>
@@ -34406,10 +34367,10 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="B61" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="C61" t="s">
         <v>15</v>
@@ -34438,10 +34399,10 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
       <c r="B62" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
       <c r="C62" t="s">
         <v>67</v>
@@ -34470,10 +34431,10 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="B63" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
       <c r="C63" t="s">
         <v>17</v>
@@ -34502,10 +34463,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="B64" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="C64" t="s">
         <v>17</v>
@@ -34534,10 +34495,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="B65" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C65" t="s">
         <v>27</v>
@@ -34566,10 +34527,10 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="B66" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="C66" t="s">
         <v>17</v>
@@ -34598,10 +34559,10 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="B67" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C67" t="s">
         <v>17</v>
@@ -34630,10 +34591,10 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="B68" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="C68" t="s">
         <v>17</v>
@@ -34662,10 +34623,10 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B69" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="C69" t="s">
         <v>35</v>
@@ -34694,10 +34655,10 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B70" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="C70" t="s">
         <v>17</v>
@@ -34726,10 +34687,10 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B71" t="s">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="C71" t="s">
         <v>38</v>
@@ -34758,10 +34719,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="B72" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="C72" t="s">
         <v>15</v>
@@ -34790,10 +34751,10 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="B73" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C73" t="s">
         <v>17</v>
@@ -34822,10 +34783,10 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>1746</v>
+        <v>1744</v>
       </c>
       <c r="B74" t="s">
-        <v>1747</v>
+        <v>1745</v>
       </c>
       <c r="C74" t="s">
         <v>15</v>
@@ -34854,10 +34815,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>1771</v>
+        <v>1769</v>
       </c>
       <c r="B75" t="s">
-        <v>1772</v>
+        <v>1770</v>
       </c>
       <c r="C75" t="s">
         <v>17</v>
@@ -34886,10 +34847,10 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
       <c r="B76" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="C76" t="s">
         <v>17</v>
@@ -35803,10 +35764,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="B28" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="C28" t="s">
         <v>17</v>
@@ -35835,10 +35796,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B29" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
@@ -35867,10 +35828,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="B30" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -36176,10 +36137,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="B9" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -36208,10 +36169,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="B10" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -36240,10 +36201,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="B11" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -36272,10 +36233,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1433</v>
+        <v>1431</v>
       </c>
       <c r="B12" t="s">
-        <v>1434</v>
+        <v>1432</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -36304,10 +36265,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="B13" t="s">
-        <v>1436</v>
+        <v>1434</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
@@ -36336,10 +36297,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="B14" t="s">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="C14" t="s">
         <v>35</v>
@@ -36368,10 +36329,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1439</v>
+        <v>1437</v>
       </c>
       <c r="B15" t="s">
-        <v>1440</v>
+        <v>1438</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -36400,10 +36361,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="B16" t="s">
-        <v>1442</v>
+        <v>1440</v>
       </c>
       <c r="C16" t="s">
         <v>38</v>
@@ -36432,10 +36393,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="B17" t="s">
-        <v>1452</v>
+        <v>1450</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
@@ -36464,10 +36425,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1457</v>
+        <v>1455</v>
       </c>
       <c r="B18" t="s">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="C18" t="s">
         <v>16</v>
@@ -36496,10 +36457,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B19" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
@@ -36528,10 +36489,10 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B20" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -36560,10 +36521,10 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B21" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
@@ -36592,10 +36553,10 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B22" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -36624,10 +36585,10 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B23" t="s">
-        <v>1488</v>
+        <v>1486</v>
       </c>
       <c r="C23" t="s">
         <v>17</v>
@@ -36656,10 +36617,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1501</v>
+        <v>1499</v>
       </c>
       <c r="B24" t="s">
-        <v>1502</v>
+        <v>1500</v>
       </c>
       <c r="C24" t="s">
         <v>17</v>
@@ -36688,10 +36649,10 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="B25" t="s">
-        <v>1540</v>
+        <v>1538</v>
       </c>
       <c r="C25" t="s">
         <v>16</v>
@@ -36720,10 +36681,10 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1541</v>
+        <v>1539</v>
       </c>
       <c r="B26" t="s">
-        <v>1542</v>
+        <v>1540</v>
       </c>
       <c r="C26" t="s">
         <v>35</v>
@@ -36752,10 +36713,10 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="B27" t="s">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="C27" t="s">
         <v>17</v>
@@ -36784,10 +36745,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="B28" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
@@ -36816,10 +36777,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="B29" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="C29" t="s">
         <v>35</v>
@@ -36848,10 +36809,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="B30" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
@@ -36880,10 +36841,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B31" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="C31" t="s">
         <v>17</v>
@@ -36912,10 +36873,10 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B32" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="C32" t="s">
         <v>48</v>
@@ -36944,10 +36905,10 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B33" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="C33" t="s">
         <v>35</v>
@@ -36976,10 +36937,10 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B34" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="C34" t="s">
         <v>17</v>
@@ -37008,10 +36969,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B35" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -37040,10 +37001,10 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="B36" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="C36" t="s">
         <v>17</v>
@@ -37072,10 +37033,10 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="B37" t="s">
-        <v>1728</v>
+        <v>1726</v>
       </c>
       <c r="C37" t="s">
         <v>17</v>
@@ -37104,10 +37065,10 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>1729</v>
+        <v>1727</v>
       </c>
       <c r="B38" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
@@ -37136,10 +37097,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="B39" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -37168,10 +37129,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>1735</v>
+        <v>1733</v>
       </c>
       <c r="B40" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
@@ -37200,10 +37161,10 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>1745</v>
+        <v>1743</v>
       </c>
       <c r="B41" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
